--- a/data/12_09/all_data.xlsx
+++ b/data/12_09/all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H120\Documents\git\linecar_fuji\data\12_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC58772-0934-4E3A-942E-EDF745F7D460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B2A7E-9456-4244-9B35-C49F3999138D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" xr2:uid="{F3E668DE-B88D-4718-B09B-675DBA580890}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>割合</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>reverce</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>10-780(erro)</t>
+  </si>
+  <si>
+    <t>%(×100)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,11 +105,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +135,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6896,16 +6915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7233,54 +7252,62 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="15" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>0.87228499999999998</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f>100*B2</f>
         <v>87.228499999999997</v>
       </c>
@@ -7310,13 +7337,13 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0.55165299999999995</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <f>100*B3</f>
         <v>55.165299999999995</v>
       </c>
@@ -7346,13 +7373,13 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.27123199999999997</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:C46" si="6">B4*100</f>
         <v>27.123199999999997</v>
       </c>
@@ -7398,13 +7425,13 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>40</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.14670900000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" si="6"/>
         <v>14.670900000000001</v>
       </c>
@@ -7450,13 +7477,13 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>50</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.10625900000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" si="6"/>
         <v>10.625900000000001</v>
       </c>
@@ -7502,13 +7529,13 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>60</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>7.3917999999999998E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" si="6"/>
         <v>7.3917999999999999</v>
       </c>
@@ -7554,13 +7581,13 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>70</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>5.3206000000000003E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" si="6"/>
         <v>5.3206000000000007</v>
       </c>
@@ -7606,13 +7633,13 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>80</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>4.1313999999999997E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" si="6"/>
         <v>4.1313999999999993</v>
       </c>
@@ -7658,13 +7685,13 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>90</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>3.2585999999999997E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="6"/>
         <v>3.2585999999999995</v>
       </c>
@@ -7710,13 +7737,13 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>100</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>2.6303E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="6"/>
         <v>2.6303000000000001</v>
       </c>
@@ -7762,13 +7789,13 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>110</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>2.2209E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f t="shared" si="6"/>
         <v>2.2208999999999999</v>
       </c>
@@ -7814,13 +7841,13 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>120</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>1.8856000000000001E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" si="6"/>
         <v>1.8856000000000002</v>
       </c>
@@ -7866,13 +7893,13 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>130</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1.6060000000000001E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f t="shared" si="6"/>
         <v>1.6060000000000001</v>
       </c>
@@ -7918,13 +7945,13 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>140</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>1.3443E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f t="shared" si="6"/>
         <v>1.3443000000000001</v>
       </c>
@@ -7970,13 +7997,13 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>150</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>1.1826E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f t="shared" si="6"/>
         <v>1.1825999999999999</v>
       </c>
@@ -8022,13 +8049,13 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>160</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>1.0349000000000001E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f t="shared" si="6"/>
         <v>1.0349000000000002</v>
       </c>
@@ -8074,13 +8101,13 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>170</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>9.1629999999999993E-3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f t="shared" si="6"/>
         <v>0.91629999999999989</v>
       </c>
@@ -8126,13 +8153,13 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>180</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>8.1740000000000007E-3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f t="shared" si="6"/>
         <v>0.81740000000000013</v>
       </c>
@@ -8178,13 +8205,13 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>190</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>7.4349999999999998E-3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f t="shared" si="6"/>
         <v>0.74349999999999994</v>
       </c>
@@ -8230,13 +8257,13 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>200</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>6.5760000000000002E-3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f t="shared" si="6"/>
         <v>0.65760000000000007</v>
       </c>
@@ -8282,13 +8309,13 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>220</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>5.496E-3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f t="shared" si="6"/>
         <v>0.54959999999999998</v>
       </c>
@@ -8334,13 +8361,13 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>250</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>4.3400000000000001E-3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f t="shared" si="6"/>
         <v>0.434</v>
       </c>
@@ -8374,13 +8401,13 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>280</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>3.457E-3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f t="shared" si="6"/>
         <v>0.34570000000000001</v>
       </c>
@@ -8414,13 +8441,13 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>300</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>3.0829999999999998E-3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" si="6"/>
         <v>0.30829999999999996</v>
       </c>
@@ -8450,13 +8477,13 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>320</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>2.6749999999999999E-3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f t="shared" si="6"/>
         <v>0.26749999999999996</v>
       </c>
@@ -8482,13 +8509,13 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>350</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>2.1779999999999998E-3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <f t="shared" si="6"/>
         <v>0.21779999999999999</v>
       </c>
@@ -8510,13 +8537,13 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>380</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>1.7179999999999999E-3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f t="shared" si="6"/>
         <v>0.17179999999999998</v>
       </c>
@@ -8538,13 +8565,13 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>400</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>1.7179999999999999E-3</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f t="shared" si="6"/>
         <v>0.17179999999999998</v>
       </c>
@@ -8566,13 +8593,13 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>420</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>1.544E-3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f t="shared" si="6"/>
         <v>0.15440000000000001</v>
       </c>
@@ -8594,13 +8621,13 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>450</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>1.382E-3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <f t="shared" si="6"/>
         <v>0.13819999999999999</v>
       </c>
@@ -8622,13 +8649,13 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>480</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>1.2110000000000001E-3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <f t="shared" si="6"/>
         <v>0.1211</v>
       </c>
@@ -8650,13 +8677,13 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>500</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>1.096E-3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <f t="shared" si="6"/>
         <v>0.1096</v>
       </c>
@@ -8670,13 +8697,13 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>520</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>1.029E-3</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <f t="shared" si="6"/>
         <v>0.10289999999999999</v>
       </c>
@@ -8690,13 +8717,13 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>550</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>9.0899999999999998E-4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <f t="shared" si="6"/>
         <v>9.0899999999999995E-2</v>
       </c>
@@ -8710,13 +8737,13 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>580</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <f t="shared" si="6"/>
         <v>8.3000000000000004E-2</v>
       </c>
@@ -8730,13 +8757,13 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37">
+      <c r="A37" s="5">
         <v>600</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>7.8700000000000005E-4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <f t="shared" si="6"/>
         <v>7.8700000000000006E-2</v>
       </c>
@@ -8750,13 +8777,13 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38">
+      <c r="A38" s="5">
         <v>620</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>7.0500000000000001E-4</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <f t="shared" si="6"/>
         <v>7.0500000000000007E-2</v>
       </c>
@@ -8770,13 +8797,13 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>650</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>6.6399999999999999E-4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <f t="shared" si="6"/>
         <v>6.6400000000000001E-2</v>
       </c>
@@ -8790,13 +8817,13 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40">
+      <c r="A40" s="5">
         <v>680</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>6.1600000000000001E-4</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <f t="shared" si="6"/>
         <v>6.1600000000000002E-2</v>
       </c>
@@ -8810,13 +8837,13 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41">
+      <c r="A41" s="5">
         <v>700</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>5.6899999999999995E-4</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <f t="shared" si="6"/>
         <v>5.6899999999999992E-2</v>
       </c>
@@ -8830,13 +8857,13 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42">
+      <c r="A42" s="5">
         <v>720</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>5.3700000000000004E-4</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <f t="shared" si="6"/>
         <v>5.3700000000000005E-2</v>
       </c>
@@ -8850,13 +8877,13 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43">
+      <c r="A43" s="5">
         <v>750</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>4.9799999999999996E-4</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <f t="shared" si="6"/>
         <v>4.9799999999999997E-2</v>
       </c>
@@ -8870,13 +8897,13 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44">
+      <c r="A44" s="5">
         <v>780</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>4.6700000000000002E-4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <f t="shared" si="6"/>
         <v>4.6700000000000005E-2</v>
       </c>
@@ -8890,25 +8917,25 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45">
+      <c r="A45" s="5">
         <v>800</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <f t="shared" si="6"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46">
+      <c r="A46" s="5">
         <v>850</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>4.4099999999999999E-4</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <f t="shared" si="6"/>
         <v>4.41E-2</v>
       </c>
